--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101136</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101136</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640238288</v>
+        <v>1146088.991923054</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640238288</v>
+        <v>1146088.991923054</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266599271.860877</v>
+        <v>51900203.30768248</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11857.79006001784</v>
+        <v>1292252.83124879</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22186.84290399684</v>
+        <v>2331238.88952318</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32515.89574797582</v>
+        <v>3370224.947797572</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43385.26009151644</v>
+        <v>4374644.32240391</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54254.62443505703</v>
+        <v>5379063.697010248</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65123.98877859762</v>
+        <v>6383483.071616584</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75993.35312213821</v>
+        <v>7387902.446222917</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86862.71746567856</v>
+        <v>8392321.82082925</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97532.20073946699</v>
+        <v>9394876.821455089</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108237.3203768927</v>
+        <v>10404523.45844451</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118942.4400143184</v>
+        <v>11414170.09543394</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129647.559651743</v>
+        <v>12423816.73242346</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140352.6792891663</v>
+        <v>13433463.36941311</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151057.7989265921</v>
+        <v>14443110.00640254</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161762.9185640169</v>
+        <v>15452756.64339202</v>
       </c>
     </row>
   </sheetData>
